--- a/data/trans_orig/P36B14_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_R-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE26467-7CB0-4E8A-A875-0CE1472A5294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21759927-D3AD-49C1-A579-BB46A093670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0258E6D0-2CE4-48C8-B4C9-1AD18DE4022F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2634D4C9-79B0-4B8F-9DE2-F4A55F85F988}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="336">
-  <si>
-    <t>Población que consume menos de una bebida azucarada por día en 2015 (Tasa respuesta: 99,39%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="338">
+  <si>
+    <t>Población que consume menos de una bebida azucarada por día en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,970 +75,976 @@
     <t>83,95%</t>
   </si>
   <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
     <t>81,87%</t>
   </si>
   <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume menos de una bebida azucarada por día en 2023 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
   </si>
   <si>
     <t>25,6%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume menos de una bebida azucarada por día en 2023 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
   </si>
   <si>
     <t>23,88%</t>
@@ -1456,7 +1462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDEB931-0B80-4983-9528-0DEB49450C57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60564814-ACBB-4BC7-83A4-0581F723ECFF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2361,7 +2367,7 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>238</v>
@@ -2370,13 +2376,13 @@
         <v>249105</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>462</v>
@@ -2385,13 +2391,13 @@
         <v>477379</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,13 +2412,13 @@
         <v>34849</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -2421,13 +2427,13 @@
         <v>24010</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>60</v>
@@ -2436,13 +2442,13 @@
         <v>58859</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,7 +2504,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2510,13 +2516,13 @@
         <v>549436</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>512</v>
@@ -2525,13 +2531,13 @@
         <v>553347</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>996</v>
@@ -2540,13 +2546,13 @@
         <v>1102783</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2567,13 @@
         <v>93399</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>121</v>
@@ -2576,13 +2582,13 @@
         <v>122506</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>205</v>
@@ -2591,13 +2597,13 @@
         <v>215905</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,7 +2659,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2665,13 +2671,13 @@
         <v>635239</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>635</v>
@@ -2680,13 +2686,13 @@
         <v>702876</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1247</v>
@@ -2695,13 +2701,13 @@
         <v>1338115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,13 +2722,13 @@
         <v>138432</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>119</v>
@@ -2731,13 +2737,13 @@
         <v>122315</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>252</v>
@@ -2746,13 +2752,13 @@
         <v>260747</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2826,13 @@
         <v>2844806</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>2860</v>
@@ -2835,13 +2841,13 @@
         <v>3054878</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>5572</v>
@@ -2850,13 +2856,13 @@
         <v>5899683</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2877,13 @@
         <v>526300</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>460</v>
@@ -2886,13 +2892,13 @@
         <v>467390</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>957</v>
@@ -2901,13 +2907,13 @@
         <v>993690</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,7 +2969,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2987,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A97812-FC61-45EA-8B80-DCD9466FE9F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD833F09-D098-4435-B405-1D37682B800E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3004,7 +3010,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3111,13 +3117,13 @@
         <v>217031</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>482</v>
@@ -3126,13 +3132,13 @@
         <v>241034</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>764</v>
@@ -3141,13 +3147,13 @@
         <v>458064</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3168,13 @@
         <v>43267</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -3177,13 +3183,13 @@
         <v>30369</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>105</v>
@@ -3192,13 +3198,13 @@
         <v>73636</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3272,13 @@
         <v>414034</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>588</v>
@@ -3281,13 +3287,13 @@
         <v>450183</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>899</v>
@@ -3296,13 +3302,13 @@
         <v>864218</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3323,13 @@
         <v>105263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>127</v>
@@ -3332,13 +3338,13 @@
         <v>102707</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>198</v>
@@ -3347,13 +3353,13 @@
         <v>207969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3427,13 @@
         <v>261395</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>474</v>
@@ -3436,13 +3442,13 @@
         <v>329043</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>770</v>
@@ -3451,13 +3457,13 @@
         <v>590438</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3478,13 @@
         <v>59973</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>61</v>
@@ -3487,13 +3493,13 @@
         <v>43511</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -3502,13 +3508,13 @@
         <v>103484</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3582,13 @@
         <v>269246</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>533</v>
@@ -3591,13 +3597,13 @@
         <v>367824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>783</v>
@@ -3606,13 +3612,13 @@
         <v>637071</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3633,13 @@
         <v>52994</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -3642,13 +3648,13 @@
         <v>59621</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -3657,10 +3663,10 @@
         <v>112614</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>251</v>
@@ -3737,7 +3743,7 @@
         <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
         <v>433</v>
@@ -3785,7 +3791,7 @@
         <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>261</v>
@@ -4029,7 +4035,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4184,7 +4190,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4381,13 +4387,13 @@
         <v>5342869</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4408,13 @@
         <v>966968</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H29" s="7">
         <v>1109</v>
@@ -4417,13 +4423,13 @@
         <v>871827</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
         <v>2009</v>
@@ -4432,13 +4438,13 @@
         <v>1838795</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,7 +4500,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21759927-D3AD-49C1-A579-BB46A093670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6721C543-BA7A-4C47-BA18-16C143309115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2634D4C9-79B0-4B8F-9DE2-F4A55F85F988}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F487CC5B-6B6F-4F7B-A558-CB0C04D5F8BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="330">
   <si>
     <t>Población que consume menos de una bebida azucarada por día en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -69,64 +69,64 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>83,95%</t>
   </si>
   <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>85,1%</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>16,05%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>83,85%</t>
   </si>
   <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
   </si>
   <si>
     <t>88,2%</t>
   </si>
   <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>86,06%</t>
   </si>
   <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>11,8%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -195,55 +195,55 @@
     <t>95,8%</t>
   </si>
   <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -252,55 +252,55 @@
     <t>78,78%</t>
   </si>
   <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
   </si>
   <si>
     <t>83,98%</t>
   </si>
   <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>81,43%</t>
   </si>
   <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -309,55 +309,55 @@
     <t>81,26%</t>
   </si>
   <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
   </si>
   <si>
     <t>86,18%</t>
   </si>
   <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>83,76%</t>
   </si>
   <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -366,55 +366,55 @@
     <t>86,76%</t>
   </si>
   <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>91,21%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -423,55 +423,55 @@
     <t>85,47%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
   </si>
   <si>
     <t>81,87%</t>
   </si>
   <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -480,16 +480,16 @@
     <t>82,11%</t>
   </si>
   <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
   </si>
   <si>
     <t>85,18%</t>
   </si>
   <si>
-    <t>82,68%</t>
+    <t>82,4%</t>
   </si>
   <si>
     <t>87,37%</t>
@@ -498,19 +498,19 @@
     <t>83,69%</t>
   </si>
   <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
   </si>
   <si>
     <t>14,82%</t>
@@ -519,16 +519,16 @@
     <t>12,63%</t>
   </si>
   <si>
-    <t>17,32%</t>
+    <t>17,6%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>84,39%</t>
@@ -537,436 +537,412 @@
     <t>83,16%</t>
   </si>
   <si>
-    <t>85,68%</t>
-  </si>
-  <si>
     <t>86,73%</t>
   </si>
   <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume menos de una bebida azucarada por día en 2023 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
     <t>87,8%</t>
   </si>
   <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume menos de una bebida azucarada por día en 2023 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
     <t>76,72%</t>
   </si>
   <si>
-    <t>70,48%</t>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
   </si>
   <si>
     <t>87,95%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>23,28%</t>
   </si>
   <si>
-    <t>29,52%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>92,79%</t>
   </si>
   <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>80,29%</t>
   </si>
   <si>
-    <t>76,14%</t>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>84,4%</t>
   </si>
   <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
+    <t>80,59%</t>
   </si>
   <si>
     <t>82,6%</t>
   </si>
   <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>79,68%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>23,86%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>19,41%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>20,32%</t>
   </si>
   <si>
     <t>42,11%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
   </si>
   <si>
     <t>46,64%</t>
   </si>
   <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
   </si>
   <si>
     <t>44,39%</t>
   </si>
   <si>
-    <t>41,57%</t>
+    <t>41,63%</t>
   </si>
   <si>
     <t>51,17%</t>
@@ -975,19 +951,19 @@
     <t>57,89%</t>
   </si>
   <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
   </si>
   <si>
     <t>53,36%</t>
   </si>
   <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
   </si>
   <si>
     <t>55,61%</t>
@@ -996,61 +972,61 @@
     <t>48,83%</t>
   </si>
   <si>
-    <t>58,43%</t>
+    <t>58,37%</t>
   </si>
   <si>
     <t>71,39%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>28,61%</t>
   </si>
   <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60564814-ACBB-4BC7-83A4-0581F723ECFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83C6F1E-1069-4409-B9EC-E35B23A3B562}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2832,7 +2808,7 @@
         <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="H28" s="7">
         <v>2860</v>
@@ -2841,13 +2817,13 @@
         <v>3054878</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>154</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="M28" s="7">
         <v>5572</v>
@@ -2856,13 +2832,13 @@
         <v>5899683</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2853,13 @@
         <v>526300</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>460</v>
@@ -2892,10 +2868,10 @@
         <v>467390</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>162</v>
@@ -2907,13 +2883,13 @@
         <v>993690</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,7 +2945,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2993,7 +2969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD833F09-D098-4435-B405-1D37682B800E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A709541-D608-4F21-9042-773F23F7149E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3010,7 +2986,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3117,13 +3093,13 @@
         <v>217031</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>482</v>
@@ -3132,13 +3108,13 @@
         <v>241034</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>764</v>
@@ -3147,13 +3123,13 @@
         <v>458064</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3144,13 @@
         <v>43267</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -3183,13 +3159,13 @@
         <v>30369</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
         <v>105</v>
@@ -3198,13 +3174,13 @@
         <v>73636</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3248,13 @@
         <v>414034</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>588</v>
@@ -3287,13 +3263,13 @@
         <v>450183</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M7" s="7">
         <v>899</v>
@@ -3302,13 +3278,13 @@
         <v>864218</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3299,13 @@
         <v>105263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>127</v>
@@ -3338,13 +3314,13 @@
         <v>102707</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>198</v>
@@ -3353,13 +3329,13 @@
         <v>207969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3403,13 @@
         <v>261395</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>474</v>
@@ -3442,13 +3418,13 @@
         <v>329043</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>770</v>
@@ -3457,13 +3433,13 @@
         <v>590438</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3454,13 @@
         <v>59973</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H11" s="7">
         <v>61</v>
@@ -3493,13 +3469,13 @@
         <v>43511</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -3508,13 +3484,13 @@
         <v>103484</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,13 +3558,13 @@
         <v>269246</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
         <v>533</v>
@@ -3597,13 +3573,13 @@
         <v>367824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>783</v>
@@ -3612,13 +3588,13 @@
         <v>637071</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>243</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3609,13 @@
         <v>52994</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -3648,13 +3624,13 @@
         <v>59621</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -3663,13 +3639,13 @@
         <v>112614</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3713,13 @@
         <v>150944</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>433</v>
@@ -3752,13 +3728,13 @@
         <v>203609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>652</v>
@@ -3767,13 +3743,13 @@
         <v>354554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3764,13 @@
         <v>45804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -3803,13 +3779,13 @@
         <v>27887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -3818,13 +3794,13 @@
         <v>73690</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3868,13 @@
         <v>237544</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>430</v>
@@ -3907,13 +3883,13 @@
         <v>255761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>754</v>
@@ -3922,13 +3898,13 @@
         <v>493305</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3919,13 @@
         <v>39679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -3958,13 +3934,13 @@
         <v>19861</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
@@ -3973,13 +3949,13 @@
         <v>59540</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4023,13 @@
         <v>501573</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>797</v>
@@ -4062,13 +4038,13 @@
         <v>677941</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="M22" s="7">
         <v>1288</v>
@@ -4077,13 +4053,13 @@
         <v>1179514</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4074,13 @@
         <v>123168</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H23" s="7">
         <v>160</v>
@@ -4113,13 +4089,13 @@
         <v>125313</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M23" s="7">
         <v>265</v>
@@ -4128,13 +4104,13 @@
         <v>248480</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>300</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4178,13 @@
         <v>361334</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H25" s="7">
         <v>507</v>
@@ -4217,13 +4193,13 @@
         <v>404371</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M25" s="7">
         <v>805</v>
@@ -4232,13 +4208,13 @@
         <v>765705</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4229,13 @@
         <v>496822</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H26" s="7">
         <v>553</v>
@@ -4268,13 +4244,13 @@
         <v>462559</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M26" s="7">
         <v>1016</v>
@@ -4283,13 +4259,13 @@
         <v>959381</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4333,13 @@
         <v>2413102</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H28" s="7">
         <v>4244</v>
@@ -4372,13 +4348,13 @@
         <v>2929767</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M28" s="7">
         <v>6715</v>
@@ -4387,13 +4363,13 @@
         <v>5342869</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4384,13 @@
         <v>966968</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H29" s="7">
         <v>1109</v>
@@ -4423,13 +4399,13 @@
         <v>871827</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>2009</v>
@@ -4438,13 +4414,13 @@
         <v>1838795</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,7 +4476,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6721C543-BA7A-4C47-BA18-16C143309115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBCBA2AF-4FB0-42A8-B1E0-A00F5B16D1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F487CC5B-6B6F-4F7B-A558-CB0C04D5F8BE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C762B4C5-8AD3-4CBF-8760-FDAC779D81E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="332">
   <si>
     <t>Población que consume menos de una bebida azucarada por día en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -567,466 +567,472 @@
     <t>Población que consume menos de una bebida azucarada por día en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
   <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>81,24%</t>
   </si>
   <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
     <t>89,29%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>46,64%</t>
   </si>
   <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
   </si>
   <si>
     <t>53,36%</t>
   </si>
   <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83C6F1E-1069-4409-B9EC-E35B23A3B562}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BF5756-0DEB-4173-8E8F-BA55DFB033F3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2814,7 +2820,7 @@
         <v>2860</v>
       </c>
       <c r="I28" s="7">
-        <v>3054878</v>
+        <v>3054877</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>166</v>
@@ -2916,7 +2922,7 @@
         <v>3320</v>
       </c>
       <c r="I30" s="7">
-        <v>3522268</v>
+        <v>3522267</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2969,7 +2975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A709541-D608-4F21-9042-773F23F7149E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFF53CC-98E7-49FA-AD76-6963E0838498}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3090,7 +3096,7 @@
         <v>282</v>
       </c>
       <c r="D4" s="7">
-        <v>217031</v>
+        <v>255748</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>176</v>
@@ -3105,7 +3111,7 @@
         <v>482</v>
       </c>
       <c r="I4" s="7">
-        <v>241034</v>
+        <v>254405</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>179</v>
@@ -3120,7 +3126,7 @@
         <v>764</v>
       </c>
       <c r="N4" s="7">
-        <v>458064</v>
+        <v>510152</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>182</v>
@@ -3141,7 +3147,7 @@
         <v>49</v>
       </c>
       <c r="D5" s="7">
-        <v>43267</v>
+        <v>55695</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>185</v>
@@ -3156,7 +3162,7 @@
         <v>56</v>
       </c>
       <c r="I5" s="7">
-        <v>30369</v>
+        <v>35230</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>188</v>
@@ -3171,7 +3177,7 @@
         <v>105</v>
       </c>
       <c r="N5" s="7">
-        <v>73636</v>
+        <v>90925</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>191</v>
@@ -3192,7 +3198,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3207,7 +3213,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3222,7 +3228,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3245,7 +3251,7 @@
         <v>311</v>
       </c>
       <c r="D7" s="7">
-        <v>414034</v>
+        <v>412278</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>194</v>
@@ -3254,37 +3260,37 @@
         <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
         <v>588</v>
       </c>
       <c r="I7" s="7">
-        <v>450183</v>
+        <v>417076</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>899</v>
       </c>
       <c r="N7" s="7">
-        <v>864218</v>
+        <v>829353</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,46 +3302,46 @@
         <v>71</v>
       </c>
       <c r="D8" s="7">
-        <v>105263</v>
+        <v>106112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>127</v>
       </c>
       <c r="I8" s="7">
-        <v>102707</v>
+        <v>96301</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>198</v>
       </c>
       <c r="N8" s="7">
-        <v>207969</v>
+        <v>202414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,7 +3353,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3362,7 +3368,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>552890</v>
+        <v>513377</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3377,7 +3383,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1072187</v>
+        <v>1031767</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3400,46 +3406,46 @@
         <v>296</v>
       </c>
       <c r="D10" s="7">
-        <v>261395</v>
+        <v>255921</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>474</v>
       </c>
       <c r="I10" s="7">
-        <v>329043</v>
+        <v>307526</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M10" s="7">
         <v>770</v>
       </c>
       <c r="N10" s="7">
-        <v>590438</v>
+        <v>563447</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3457,13 @@
         <v>63</v>
       </c>
       <c r="D11" s="7">
-        <v>59973</v>
+        <v>59292</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>221</v>
@@ -3466,7 +3472,7 @@
         <v>61</v>
       </c>
       <c r="I11" s="7">
-        <v>43511</v>
+        <v>40920</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>222</v>
@@ -3481,7 +3487,7 @@
         <v>124</v>
       </c>
       <c r="N11" s="7">
-        <v>103484</v>
+        <v>100212</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>225</v>
@@ -3502,7 +3508,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321368</v>
+        <v>315213</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3517,7 +3523,7 @@
         <v>535</v>
       </c>
       <c r="I12" s="7">
-        <v>372554</v>
+        <v>348446</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3532,7 +3538,7 @@
         <v>894</v>
       </c>
       <c r="N12" s="7">
-        <v>693922</v>
+        <v>663659</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3555,7 +3561,7 @@
         <v>250</v>
       </c>
       <c r="D13" s="7">
-        <v>269246</v>
+        <v>259999</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>228</v>
@@ -3570,7 +3576,7 @@
         <v>533</v>
       </c>
       <c r="I13" s="7">
-        <v>367824</v>
+        <v>419891</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>231</v>
@@ -3585,16 +3591,16 @@
         <v>783</v>
       </c>
       <c r="N13" s="7">
-        <v>637071</v>
+        <v>679890</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,46 +3612,46 @@
         <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>52994</v>
+        <v>52558</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
       </c>
       <c r="I14" s="7">
-        <v>59621</v>
+        <v>54788</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
       </c>
       <c r="N14" s="7">
-        <v>112614</v>
+        <v>107346</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,7 +3663,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3672,7 +3678,7 @@
         <v>597</v>
       </c>
       <c r="I15" s="7">
-        <v>427445</v>
+        <v>474679</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3687,7 +3693,7 @@
         <v>889</v>
       </c>
       <c r="N15" s="7">
-        <v>749685</v>
+        <v>787236</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3710,37 +3716,37 @@
         <v>219</v>
       </c>
       <c r="D16" s="7">
-        <v>150944</v>
+        <v>137394</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>433</v>
       </c>
       <c r="I16" s="7">
-        <v>203609</v>
+        <v>183578</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>652</v>
       </c>
       <c r="N16" s="7">
-        <v>354554</v>
+        <v>320972</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>250</v>
@@ -3761,7 +3767,7 @@
         <v>60</v>
       </c>
       <c r="D17" s="7">
-        <v>45804</v>
+        <v>41348</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>253</v>
@@ -3776,31 +3782,31 @@
         <v>58</v>
       </c>
       <c r="I17" s="7">
-        <v>27887</v>
+        <v>24696</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
       </c>
       <c r="N17" s="7">
-        <v>73690</v>
+        <v>66044</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3818,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3827,7 +3833,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3842,7 +3848,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3865,46 +3871,46 @@
         <v>324</v>
       </c>
       <c r="D19" s="7">
-        <v>237544</v>
+        <v>230913</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>430</v>
       </c>
       <c r="I19" s="7">
-        <v>255761</v>
+        <v>238647</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>754</v>
       </c>
       <c r="N19" s="7">
-        <v>493305</v>
+        <v>469560</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,46 +3922,46 @@
         <v>47</v>
       </c>
       <c r="D20" s="7">
-        <v>39679</v>
+        <v>38723</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>30</v>
+      </c>
+      <c r="I20" s="7">
+        <v>18409</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H20" s="7">
-        <v>30</v>
-      </c>
-      <c r="I20" s="7">
-        <v>19861</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
       </c>
       <c r="N20" s="7">
-        <v>59540</v>
+        <v>57132</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,7 +3973,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3982,7 +3988,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3997,7 +4003,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4020,46 +4026,46 @@
         <v>491</v>
       </c>
       <c r="D22" s="7">
-        <v>501573</v>
+        <v>492227</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>797</v>
       </c>
       <c r="I22" s="7">
-        <v>677941</v>
+        <v>731023</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M22" s="7">
         <v>1288</v>
       </c>
       <c r="N22" s="7">
-        <v>1179514</v>
+        <v>1223250</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,7 +4077,7 @@
         <v>105</v>
       </c>
       <c r="D23" s="7">
-        <v>123168</v>
+        <v>129144</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>287</v>
@@ -4086,31 +4092,31 @@
         <v>160</v>
       </c>
       <c r="I23" s="7">
-        <v>125313</v>
+        <v>117346</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>265</v>
       </c>
       <c r="N23" s="7">
-        <v>248480</v>
+        <v>246490</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,7 +4128,7 @@
         <v>596</v>
       </c>
       <c r="D24" s="7">
-        <v>624741</v>
+        <v>621371</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4137,7 +4143,7 @@
         <v>957</v>
       </c>
       <c r="I24" s="7">
-        <v>803254</v>
+        <v>848369</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4152,7 +4158,7 @@
         <v>1553</v>
       </c>
       <c r="N24" s="7">
-        <v>1427994</v>
+        <v>1469740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4175,46 +4181,46 @@
         <v>298</v>
       </c>
       <c r="D25" s="7">
-        <v>361334</v>
+        <v>507698</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H25" s="7">
         <v>507</v>
       </c>
       <c r="I25" s="7">
-        <v>404371</v>
+        <v>334155</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>805</v>
       </c>
       <c r="N25" s="7">
-        <v>765705</v>
+        <v>841853</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,46 +4232,46 @@
         <v>463</v>
       </c>
       <c r="D26" s="7">
-        <v>496822</v>
+        <v>419926</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>553</v>
       </c>
       <c r="I26" s="7">
-        <v>462559</v>
+        <v>382304</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M26" s="7">
         <v>1016</v>
       </c>
       <c r="N26" s="7">
-        <v>959381</v>
+        <v>802231</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,7 +4283,7 @@
         <v>761</v>
       </c>
       <c r="D27" s="7">
-        <v>858156</v>
+        <v>927624</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -4292,7 +4298,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>866930</v>
+        <v>716459</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -4307,7 +4313,7 @@
         <v>1821</v>
       </c>
       <c r="N27" s="7">
-        <v>1725086</v>
+        <v>1644084</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -4330,46 +4336,46 @@
         <v>2471</v>
       </c>
       <c r="D28" s="7">
-        <v>2413102</v>
+        <v>2552177</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H28" s="7">
         <v>4244</v>
       </c>
       <c r="I28" s="7">
-        <v>2929767</v>
+        <v>2886300</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M28" s="7">
         <v>6715</v>
       </c>
       <c r="N28" s="7">
-        <v>5342869</v>
+        <v>5438477</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,46 +4387,46 @@
         <v>900</v>
       </c>
       <c r="D29" s="7">
-        <v>966968</v>
+        <v>902799</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H29" s="7">
         <v>1109</v>
       </c>
       <c r="I29" s="7">
-        <v>871827</v>
+        <v>769995</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>2009</v>
       </c>
       <c r="N29" s="7">
-        <v>1838795</v>
+        <v>1672793</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,7 +4438,7 @@
         <v>3371</v>
       </c>
       <c r="D30" s="7">
-        <v>3380070</v>
+        <v>3454976</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4447,7 +4453,7 @@
         <v>5353</v>
       </c>
       <c r="I30" s="7">
-        <v>3801594</v>
+        <v>3656295</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -4462,7 +4468,7 @@
         <v>8724</v>
       </c>
       <c r="N30" s="7">
-        <v>7181664</v>
+        <v>7111270</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
